--- a/K22vnt4-lethuonghoaithu-2210900126-db.xlsx
+++ b/K22vnt4-lethuonghoaithu-2210900126-db.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\thu\DATN-LTHT\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20D220A9-3165-41FA-B5CD-3B3217A82686}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC129927-831A-4648-945B-354A281826EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{254F8AC1-F80B-4B7A-8F15-67C97BEEF212}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="351" uniqueCount="216">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="351" uniqueCount="217">
   <si>
     <t>BẢNG</t>
   </si>
@@ -379,9 +379,6 @@
     <t>vai_tro</t>
   </si>
   <si>
-    <t>admin / customer</t>
-  </si>
-  <si>
     <t>varchar(15)</t>
   </si>
   <si>
@@ -683,6 +680,12 @@
   </si>
   <si>
     <t>mặc định null</t>
+  </si>
+  <si>
+    <t>admin / member/ customer</t>
+  </si>
+  <si>
+    <t>enum</t>
   </si>
 </sst>
 </file>
@@ -947,6 +950,101 @@
   <dxfs count="54">
     <dxf>
       <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="13"/>
+        <color theme="1"/>
+        <name val="Times New Roman"/>
+        <family val="1"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="13"/>
+        <color theme="1"/>
+        <name val="Times New Roman"/>
+        <family val="1"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="13"/>
+        <color theme="1"/>
+        <name val="Times New Roman"/>
+        <family val="1"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="13"/>
+        <color theme="1"/>
+        <name val="Times New Roman"/>
+        <family val="1"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="13"/>
+        <color theme="1"/>
+        <name val="Times New Roman"/>
+        <family val="1"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
         <b/>
         <i val="0"/>
         <strike val="0"/>
@@ -1875,101 +1973,6 @@
         <scheme val="none"/>
       </font>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="13"/>
-        <color theme="1"/>
-        <name val="Times New Roman"/>
-        <family val="1"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="13"/>
-        <color theme="1"/>
-        <name val="Times New Roman"/>
-        <family val="1"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="13"/>
-        <color theme="1"/>
-        <name val="Times New Roman"/>
-        <family val="1"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="13"/>
-        <color theme="1"/>
-        <name val="Times New Roman"/>
-        <family val="1"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="13"/>
-        <color theme="1"/>
-        <name val="Times New Roman"/>
-        <family val="1"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1985,117 +1988,117 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{B9959EB8-87D3-4F7D-9FBB-1D502D978D24}" name="Table1" displayName="Table1" ref="B9:E17" totalsRowShown="0" headerRowDxfId="48" dataDxfId="49">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{B9959EB8-87D3-4F7D-9FBB-1D502D978D24}" name="Table1" displayName="Table1" ref="B9:E17" totalsRowShown="0" headerRowDxfId="53" dataDxfId="52">
   <autoFilter ref="B9:E17" xr:uid="{B9959EB8-87D3-4F7D-9FBB-1D502D978D24}"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{D9262D88-6766-4488-8392-EBD2A6036572}" name="Mô tả " dataDxfId="53"/>
-    <tableColumn id="2" xr3:uid="{B16CDE8C-457B-4BFC-B13E-170F8E02854E}" name="Cột" dataDxfId="52"/>
-    <tableColumn id="3" xr3:uid="{E57416CD-759C-4FC9-A798-58DF4F906C54}" name="Kiểu dữ liệu (MySQL)" dataDxfId="51"/>
-    <tableColumn id="4" xr3:uid="{C6D7749E-DBA4-4FB8-A485-C034DD1A02DC}" name="Ràng buộc" dataDxfId="50"/>
+    <tableColumn id="1" xr3:uid="{D9262D88-6766-4488-8392-EBD2A6036572}" name="Mô tả " dataDxfId="51"/>
+    <tableColumn id="2" xr3:uid="{B16CDE8C-457B-4BFC-B13E-170F8E02854E}" name="Cột" dataDxfId="50"/>
+    <tableColumn id="3" xr3:uid="{E57416CD-759C-4FC9-A798-58DF4F906C54}" name="Kiểu dữ liệu (MySQL)" dataDxfId="49"/>
+    <tableColumn id="4" xr3:uid="{C6D7749E-DBA4-4FB8-A485-C034DD1A02DC}" name="Ràng buộc" dataDxfId="48"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight15" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{69CEB18C-3780-426C-BEEF-3A554781F22E}" name="Table2" displayName="Table2" ref="B25:E29" totalsRowShown="0" headerRowDxfId="42" dataDxfId="43">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{69CEB18C-3780-426C-BEEF-3A554781F22E}" name="Table2" displayName="Table2" ref="B25:E29" totalsRowShown="0" headerRowDxfId="47" dataDxfId="46">
   <autoFilter ref="B25:E29" xr:uid="{69CEB18C-3780-426C-BEEF-3A554781F22E}"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{3A67E6B6-DCA4-4867-958F-E165C3AB9D45}" name="Mô tả" dataDxfId="47"/>
-    <tableColumn id="2" xr3:uid="{625A9362-B148-4A9D-AF5D-230DD7872B8D}" name="Cột" dataDxfId="46"/>
-    <tableColumn id="3" xr3:uid="{196F7B7E-05DA-41AA-9F58-2C988FDA56CE}" name="Kiểu dữ liệu (MySQL)" dataDxfId="45"/>
-    <tableColumn id="4" xr3:uid="{F19C067F-FC15-4FEB-A787-52A4892AA719}" name="Ràng buộc" dataDxfId="44"/>
+    <tableColumn id="1" xr3:uid="{3A67E6B6-DCA4-4867-958F-E165C3AB9D45}" name="Mô tả" dataDxfId="45"/>
+    <tableColumn id="2" xr3:uid="{625A9362-B148-4A9D-AF5D-230DD7872B8D}" name="Cột" dataDxfId="44"/>
+    <tableColumn id="3" xr3:uid="{196F7B7E-05DA-41AA-9F58-2C988FDA56CE}" name="Kiểu dữ liệu (MySQL)" dataDxfId="43"/>
+    <tableColumn id="4" xr3:uid="{F19C067F-FC15-4FEB-A787-52A4892AA719}" name="Ràng buộc" dataDxfId="42"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight15" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{A1D3D0C3-A8DB-4FA5-A203-DABDA976098F}" name="Table4" displayName="Table4" ref="B33:E39" totalsRowShown="0" headerRowDxfId="36" dataDxfId="37">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{A1D3D0C3-A8DB-4FA5-A203-DABDA976098F}" name="Table4" displayName="Table4" ref="B33:E39" totalsRowShown="0" headerRowDxfId="41" dataDxfId="40">
   <autoFilter ref="B33:E39" xr:uid="{A1D3D0C3-A8DB-4FA5-A203-DABDA976098F}"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{911C853F-406C-45DA-BB31-031E519E9D0B}" name="Mô tả " dataDxfId="41"/>
-    <tableColumn id="2" xr3:uid="{C70040BA-62CE-42F9-83F9-DEDCC0021256}" name="Cột" dataDxfId="40"/>
-    <tableColumn id="3" xr3:uid="{E9E04607-CD30-45B3-A180-B9D96CD77163}" name="Kiểu dữ liệu (MySQL)" dataDxfId="39"/>
-    <tableColumn id="4" xr3:uid="{D6F5B721-5762-46F9-8C84-1CA4A6FA7839}" name="Ràng buộc" dataDxfId="38"/>
+    <tableColumn id="1" xr3:uid="{911C853F-406C-45DA-BB31-031E519E9D0B}" name="Mô tả " dataDxfId="39"/>
+    <tableColumn id="2" xr3:uid="{C70040BA-62CE-42F9-83F9-DEDCC0021256}" name="Cột" dataDxfId="38"/>
+    <tableColumn id="3" xr3:uid="{E9E04607-CD30-45B3-A180-B9D96CD77163}" name="Kiểu dữ liệu (MySQL)" dataDxfId="37"/>
+    <tableColumn id="4" xr3:uid="{D6F5B721-5762-46F9-8C84-1CA4A6FA7839}" name="Ràng buộc" dataDxfId="36"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight15" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{4BF62BD4-60C5-4A71-A6C1-FEA9069D1663}" name="Table5" displayName="Table5" ref="B43:E49" totalsRowShown="0" headerRowDxfId="30" dataDxfId="31">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{4BF62BD4-60C5-4A71-A6C1-FEA9069D1663}" name="Table5" displayName="Table5" ref="B43:E49" totalsRowShown="0" headerRowDxfId="35" dataDxfId="34">
   <autoFilter ref="B43:E49" xr:uid="{4BF62BD4-60C5-4A71-A6C1-FEA9069D1663}"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{31E347F8-3CA3-45E0-BB40-689EAB1CCF8F}" name="Mô tả" dataDxfId="35"/>
-    <tableColumn id="2" xr3:uid="{658F9C88-A3D4-457E-9D34-8DF86698BA07}" name="Cột" dataDxfId="34"/>
-    <tableColumn id="3" xr3:uid="{7576D915-D13B-4DE2-94E8-09839779FD24}" name="Kiểu dữ liệu (MySQL)" dataDxfId="33"/>
-    <tableColumn id="4" xr3:uid="{B74E29A8-1E35-4C3B-BA36-19C94F883E7F}" name="Ràng buộc" dataDxfId="32"/>
+    <tableColumn id="1" xr3:uid="{31E347F8-3CA3-45E0-BB40-689EAB1CCF8F}" name="Mô tả" dataDxfId="33"/>
+    <tableColumn id="2" xr3:uid="{658F9C88-A3D4-457E-9D34-8DF86698BA07}" name="Cột" dataDxfId="32"/>
+    <tableColumn id="3" xr3:uid="{7576D915-D13B-4DE2-94E8-09839779FD24}" name="Kiểu dữ liệu (MySQL)" dataDxfId="31"/>
+    <tableColumn id="4" xr3:uid="{B74E29A8-1E35-4C3B-BA36-19C94F883E7F}" name="Ràng buộc" dataDxfId="30"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight15" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{8F11A3CC-A82F-477A-9A64-6BEAB81FCC3E}" name="Table6" displayName="Table6" ref="B55:E60" totalsRowShown="0" headerRowDxfId="24" dataDxfId="25">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{8F11A3CC-A82F-477A-9A64-6BEAB81FCC3E}" name="Table6" displayName="Table6" ref="B55:E60" totalsRowShown="0" headerRowDxfId="29" dataDxfId="28">
   <autoFilter ref="B55:E60" xr:uid="{8F11A3CC-A82F-477A-9A64-6BEAB81FCC3E}"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{21A29277-2176-4205-8468-93088F7EACB4}" name="Mô tả" dataDxfId="29"/>
-    <tableColumn id="2" xr3:uid="{FE671FD9-2762-4BAB-A197-AE168950E2FC}" name="Cột" dataDxfId="28"/>
-    <tableColumn id="3" xr3:uid="{F522398B-94DE-4AEB-ADEA-ADE7ED9D43E6}" name="Kiểu dữ liệu (MySQL)" dataDxfId="27"/>
-    <tableColumn id="4" xr3:uid="{2F5F7DCB-E47A-4399-8AEF-802E097731E8}" name="Ràng buộc" dataDxfId="26"/>
+    <tableColumn id="1" xr3:uid="{21A29277-2176-4205-8468-93088F7EACB4}" name="Mô tả" dataDxfId="27"/>
+    <tableColumn id="2" xr3:uid="{FE671FD9-2762-4BAB-A197-AE168950E2FC}" name="Cột" dataDxfId="26"/>
+    <tableColumn id="3" xr3:uid="{F522398B-94DE-4AEB-ADEA-ADE7ED9D43E6}" name="Kiểu dữ liệu (MySQL)" dataDxfId="25"/>
+    <tableColumn id="4" xr3:uid="{2F5F7DCB-E47A-4399-8AEF-802E097731E8}" name="Ràng buộc" dataDxfId="24"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight15" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{E7404C3D-C4FF-472C-A83C-446B9CAF6D8A}" name="Table7" displayName="Table7" ref="B65:E68" totalsRowShown="0" headerRowDxfId="18" dataDxfId="19">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{E7404C3D-C4FF-472C-A83C-446B9CAF6D8A}" name="Table7" displayName="Table7" ref="B65:E68" totalsRowShown="0" headerRowDxfId="23" dataDxfId="22">
   <autoFilter ref="B65:E68" xr:uid="{E7404C3D-C4FF-472C-A83C-446B9CAF6D8A}"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{4B83A0A3-B8E2-4D3D-B75F-DFE745BE142F}" name="Mô tả" dataDxfId="23"/>
-    <tableColumn id="2" xr3:uid="{12EC0232-7E80-4400-A3E4-B7AE9AEE43A4}" name="Cột" dataDxfId="22"/>
-    <tableColumn id="3" xr3:uid="{3B57391E-C7A3-4ECD-82C0-D6B4F29D45BB}" name="Kiểu dữ liệu (MySQL)" dataDxfId="21"/>
-    <tableColumn id="4" xr3:uid="{C4A83D97-71D2-4284-91B0-2F4DA3ACCE37}" name="Ràng buộc" dataDxfId="20"/>
+    <tableColumn id="1" xr3:uid="{4B83A0A3-B8E2-4D3D-B75F-DFE745BE142F}" name="Mô tả" dataDxfId="21"/>
+    <tableColumn id="2" xr3:uid="{12EC0232-7E80-4400-A3E4-B7AE9AEE43A4}" name="Cột" dataDxfId="20"/>
+    <tableColumn id="3" xr3:uid="{3B57391E-C7A3-4ECD-82C0-D6B4F29D45BB}" name="Kiểu dữ liệu (MySQL)" dataDxfId="19"/>
+    <tableColumn id="4" xr3:uid="{C4A83D97-71D2-4284-91B0-2F4DA3ACCE37}" name="Ràng buộc" dataDxfId="18"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight15" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{B90E2A6E-387B-498A-A890-1554BB27F64A}" name="Table8" displayName="Table8" ref="B74:E82" totalsRowShown="0" headerRowDxfId="12" dataDxfId="13">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{B90E2A6E-387B-498A-A890-1554BB27F64A}" name="Table8" displayName="Table8" ref="B74:E82" totalsRowShown="0" headerRowDxfId="17" dataDxfId="16">
   <autoFilter ref="B74:E82" xr:uid="{B90E2A6E-387B-498A-A890-1554BB27F64A}"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{02EA5047-D444-4C1A-BB1C-EC2C85EDFF26}" name="Mô tả " dataDxfId="17"/>
-    <tableColumn id="2" xr3:uid="{EE730B66-550F-45C8-BF81-0472751C0E15}" name="Cột" dataDxfId="16"/>
-    <tableColumn id="3" xr3:uid="{DE4EE514-FAB5-49CD-9E64-CF26D63CC2E0}" name="Kiểu dữ liệu (MySQL)" dataDxfId="15"/>
-    <tableColumn id="4" xr3:uid="{6E71480D-31E4-4821-8AC2-67125C8FD667}" name="Ràng buộc " dataDxfId="14"/>
+    <tableColumn id="1" xr3:uid="{02EA5047-D444-4C1A-BB1C-EC2C85EDFF26}" name="Mô tả " dataDxfId="15"/>
+    <tableColumn id="2" xr3:uid="{EE730B66-550F-45C8-BF81-0472751C0E15}" name="Cột" dataDxfId="14"/>
+    <tableColumn id="3" xr3:uid="{DE4EE514-FAB5-49CD-9E64-CF26D63CC2E0}" name="Kiểu dữ liệu (MySQL)" dataDxfId="13"/>
+    <tableColumn id="4" xr3:uid="{6E71480D-31E4-4821-8AC2-67125C8FD667}" name="Ràng buộc " dataDxfId="12"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight15" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table8.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="9" xr:uid="{30519DEC-7B1C-41AF-8D2E-A1C629D343BD}" name="Table9" displayName="Table9" ref="B86:E92" totalsRowShown="0" headerRowDxfId="6" dataDxfId="7">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="9" xr:uid="{30519DEC-7B1C-41AF-8D2E-A1C629D343BD}" name="Table9" displayName="Table9" ref="B86:E92" totalsRowShown="0" headerRowDxfId="11" dataDxfId="10">
   <autoFilter ref="B86:E92" xr:uid="{30519DEC-7B1C-41AF-8D2E-A1C629D343BD}"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{655C9612-ED06-4F05-8FCE-E5C0CA886FCF}" name="Mô tả" dataDxfId="11"/>
-    <tableColumn id="2" xr3:uid="{7D6569C5-E6B9-401D-8520-16A88980F324}" name="Cột" dataDxfId="10"/>
-    <tableColumn id="3" xr3:uid="{8D139D6E-18B0-4B69-A9CB-45E2E641B45C}" name="Kiểu dữ liệu (MySQL)" dataDxfId="9"/>
-    <tableColumn id="4" xr3:uid="{7CF0369B-52FF-49CE-B000-D606FACA9FEF}" name="Ràng buộc" dataDxfId="8"/>
+    <tableColumn id="1" xr3:uid="{655C9612-ED06-4F05-8FCE-E5C0CA886FCF}" name="Mô tả" dataDxfId="9"/>
+    <tableColumn id="2" xr3:uid="{7D6569C5-E6B9-401D-8520-16A88980F324}" name="Cột" dataDxfId="8"/>
+    <tableColumn id="3" xr3:uid="{8D139D6E-18B0-4B69-A9CB-45E2E641B45C}" name="Kiểu dữ liệu (MySQL)" dataDxfId="7"/>
+    <tableColumn id="4" xr3:uid="{7CF0369B-52FF-49CE-B000-D606FACA9FEF}" name="Ràng buộc" dataDxfId="6"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight15" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table9.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="10" xr:uid="{D8D5AAFE-45C2-42AB-9FB7-853460760EF2}" name="Table10" displayName="Table10" ref="B96:E106" totalsRowShown="0" headerRowDxfId="0" dataDxfId="1">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="10" xr:uid="{D8D5AAFE-45C2-42AB-9FB7-853460760EF2}" name="Table10" displayName="Table10" ref="B96:E106" totalsRowShown="0" headerRowDxfId="5" dataDxfId="4">
   <autoFilter ref="B96:E106" xr:uid="{D8D5AAFE-45C2-42AB-9FB7-853460760EF2}"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{B9F8CE34-0DB8-4EDC-8919-27A3C6D13970}" name="Mô tả" dataDxfId="5"/>
-    <tableColumn id="2" xr3:uid="{B631C9F8-A45A-4A43-A283-1F7AF93398A1}" name="Cột" dataDxfId="4"/>
-    <tableColumn id="3" xr3:uid="{85901D8E-98D3-4689-B2E8-519D35C089EF}" name="Kiểu dữ liệu (MySQL)" dataDxfId="3"/>
-    <tableColumn id="4" xr3:uid="{C70BA152-CAF9-41F3-AFF4-433074DBD0A5}" name="Ràng buộc" dataDxfId="2"/>
+    <tableColumn id="1" xr3:uid="{B9F8CE34-0DB8-4EDC-8919-27A3C6D13970}" name="Mô tả" dataDxfId="3"/>
+    <tableColumn id="2" xr3:uid="{B631C9F8-A45A-4A43-A283-1F7AF93398A1}" name="Cột" dataDxfId="2"/>
+    <tableColumn id="3" xr3:uid="{85901D8E-98D3-4689-B2E8-519D35C089EF}" name="Kiểu dữ liệu (MySQL)" dataDxfId="1"/>
+    <tableColumn id="4" xr3:uid="{C70BA152-CAF9-41F3-AFF4-433074DBD0A5}" name="Ràng buộc" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight15" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2400,8 +2403,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{93708A95-F883-4E54-B98B-D8A93EC591EC}">
   <dimension ref="A1:H112"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="81" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="E106" sqref="E106"/>
+    <sheetView tabSelected="1" topLeftCell="A103" zoomScale="81" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="E108" sqref="E108"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2418,7 +2421,7 @@
   <sheetData>
     <row r="1" spans="1:8" ht="25.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B1" s="2" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C1" s="2"/>
       <c r="D1" s="2"/>
@@ -2432,14 +2435,14 @@
         <v>1</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="D2" s="4"/>
       <c r="E2" s="5" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="F2" s="6"/>
       <c r="G2" s="19">
@@ -2452,18 +2455,18 @@
         <v>2</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C3" s="17">
         <v>2210900126</v>
       </c>
       <c r="D3" s="8"/>
       <c r="E3" s="9" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="F3" s="10"/>
       <c r="G3" s="20" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="H3" s="2"/>
     </row>
@@ -2472,10 +2475,10 @@
         <v>3</v>
       </c>
       <c r="B4" s="7" t="s">
+        <v>207</v>
+      </c>
+      <c r="C4" s="17" t="s">
         <v>208</v>
-      </c>
-      <c r="C4" s="17" t="s">
-        <v>209</v>
       </c>
       <c r="D4" s="12"/>
       <c r="E4" s="13"/>
@@ -2488,10 +2491,10 @@
         <v>4</v>
       </c>
       <c r="B5" s="14" t="s">
+        <v>209</v>
+      </c>
+      <c r="C5" s="18" t="s">
         <v>210</v>
-      </c>
-      <c r="C5" s="18" t="s">
-        <v>211</v>
       </c>
       <c r="D5" s="15"/>
       <c r="E5" s="16"/>
@@ -2521,13 +2524,13 @@
       <c r="F8" s="22"/>
       <c r="G8" s="22"/>
       <c r="H8" s="23" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="21"/>
       <c r="B9" s="24" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C9" s="24" t="s">
         <v>1</v>
@@ -2541,7 +2544,7 @@
       <c r="F9" s="22"/>
       <c r="G9" s="22"/>
       <c r="H9" s="22" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="10" spans="1:8" ht="38.4" customHeight="1" x14ac:dyDescent="0.3">
@@ -2561,7 +2564,7 @@
       <c r="F10" s="22"/>
       <c r="G10" s="22"/>
       <c r="H10" s="22" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="31.8" customHeight="1" x14ac:dyDescent="0.3">
@@ -2579,7 +2582,7 @@
       <c r="F11" s="22"/>
       <c r="G11" s="22"/>
       <c r="H11" s="22" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="12" spans="1:8" ht="31.8" customHeight="1" x14ac:dyDescent="0.3">
@@ -2597,7 +2600,7 @@
       <c r="F12" s="22"/>
       <c r="G12" s="22"/>
       <c r="H12" s="22" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="13" spans="1:8" ht="31.8" customHeight="1" x14ac:dyDescent="0.3">
@@ -2615,7 +2618,7 @@
       <c r="F13" s="22"/>
       <c r="G13" s="22"/>
       <c r="H13" s="22" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="14" spans="1:8" ht="31.8" customHeight="1" x14ac:dyDescent="0.3">
@@ -2633,7 +2636,7 @@
       <c r="F14" s="22"/>
       <c r="G14" s="22"/>
       <c r="H14" s="22" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="15" spans="1:8" ht="31.8" customHeight="1" x14ac:dyDescent="0.3">
@@ -2651,7 +2654,7 @@
       <c r="F15" s="22"/>
       <c r="G15" s="22"/>
       <c r="H15" s="22" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="16" spans="1:8" ht="31.8" customHeight="1" x14ac:dyDescent="0.3">
@@ -2671,7 +2674,7 @@
       <c r="F16" s="22"/>
       <c r="G16" s="22"/>
       <c r="H16" s="22" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="17" spans="1:8" ht="31.8" customHeight="1" x14ac:dyDescent="0.3">
@@ -2689,7 +2692,7 @@
       <c r="F17" s="22"/>
       <c r="G17" s="22"/>
       <c r="H17" s="22" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="18" spans="1:8" ht="30.6" customHeight="1" x14ac:dyDescent="0.3">
@@ -2701,7 +2704,7 @@
       <c r="F18" s="22"/>
       <c r="G18" s="22"/>
       <c r="H18" s="22" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="19" spans="1:8" ht="30.6" customHeight="1" x14ac:dyDescent="0.3">
@@ -2713,7 +2716,7 @@
       <c r="F19" s="22"/>
       <c r="G19" s="22"/>
       <c r="H19" s="22" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="20" spans="1:8" ht="30.6" customHeight="1" x14ac:dyDescent="0.3">
@@ -2725,7 +2728,7 @@
       <c r="F20" s="22"/>
       <c r="G20" s="22"/>
       <c r="H20" s="22" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="21" spans="1:8" ht="30.6" customHeight="1" x14ac:dyDescent="0.3">
@@ -2737,7 +2740,7 @@
       <c r="F21" s="22"/>
       <c r="G21" s="22"/>
       <c r="H21" s="22" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="22" spans="1:8" ht="30.6" customHeight="1" x14ac:dyDescent="0.3">
@@ -2749,7 +2752,7 @@
       <c r="F22" s="22"/>
       <c r="G22" s="22"/>
       <c r="H22" s="22" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="23" spans="1:8" ht="30.6" customHeight="1" x14ac:dyDescent="0.3">
@@ -2761,7 +2764,7 @@
       <c r="F23" s="22"/>
       <c r="G23" s="22"/>
       <c r="H23" s="22" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="24" spans="1:8" ht="28.2" customHeight="1" x14ac:dyDescent="0.3">
@@ -2781,7 +2784,7 @@
     <row r="25" spans="1:8" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="21"/>
       <c r="B25" s="24" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C25" s="24" t="s">
         <v>1</v>
@@ -2795,7 +2798,7 @@
       <c r="F25" s="22"/>
       <c r="G25" s="22"/>
       <c r="H25" s="22" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="26" spans="1:8" ht="33" customHeight="1" x14ac:dyDescent="0.3">
@@ -2815,7 +2818,7 @@
       <c r="F26" s="22"/>
       <c r="G26" s="22"/>
       <c r="H26" s="22" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="33" customHeight="1" x14ac:dyDescent="0.3">
@@ -2833,7 +2836,7 @@
       <c r="F27" s="22"/>
       <c r="G27" s="22"/>
       <c r="H27" s="22" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="28" spans="1:8" ht="33" customHeight="1" x14ac:dyDescent="0.3">
@@ -2851,7 +2854,7 @@
       <c r="F28" s="22"/>
       <c r="G28" s="22"/>
       <c r="H28" s="22" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="29" spans="1:8" ht="33" customHeight="1" x14ac:dyDescent="0.3">
@@ -2869,7 +2872,7 @@
       <c r="F29" s="22"/>
       <c r="G29" s="22"/>
       <c r="H29" s="22" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="30" spans="1:8" ht="31.2" customHeight="1" x14ac:dyDescent="0.3">
@@ -2881,7 +2884,7 @@
       <c r="F30" s="22"/>
       <c r="G30" s="22"/>
       <c r="H30" s="22" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="31" spans="1:8" ht="31.2" customHeight="1" x14ac:dyDescent="0.3">
@@ -2893,7 +2896,7 @@
       <c r="F31" s="22"/>
       <c r="G31" s="22"/>
       <c r="H31" s="22" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="32" spans="1:8" ht="29.4" customHeight="1" x14ac:dyDescent="0.3">
@@ -2913,7 +2916,7 @@
     <row r="33" spans="1:8" ht="35.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="21"/>
       <c r="B33" s="24" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C33" s="24" t="s">
         <v>1</v>
@@ -2927,7 +2930,7 @@
       <c r="F33" s="22"/>
       <c r="G33" s="22"/>
       <c r="H33" s="22" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="34" spans="1:8" ht="35.4" customHeight="1" x14ac:dyDescent="0.3">
@@ -2947,7 +2950,7 @@
       <c r="F34" s="22"/>
       <c r="G34" s="22"/>
       <c r="H34" s="22" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="35" spans="1:8" ht="35.4" customHeight="1" x14ac:dyDescent="0.3">
@@ -2965,7 +2968,7 @@
       <c r="F35" s="22"/>
       <c r="G35" s="22"/>
       <c r="H35" s="22" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="36" spans="1:8" ht="35.4" customHeight="1" x14ac:dyDescent="0.3">
@@ -2985,7 +2988,7 @@
       <c r="F36" s="22"/>
       <c r="G36" s="22"/>
       <c r="H36" s="22" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="37" spans="1:8" ht="35.4" customHeight="1" x14ac:dyDescent="0.3">
@@ -3003,7 +3006,7 @@
       <c r="F37" s="22"/>
       <c r="G37" s="22"/>
       <c r="H37" s="22" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="38" spans="1:8" ht="35.4" customHeight="1" x14ac:dyDescent="0.3">
@@ -3021,13 +3024,13 @@
       <c r="F38" s="22"/>
       <c r="G38" s="22"/>
       <c r="H38" s="22" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="39" spans="1:8" ht="35.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A39" s="21"/>
       <c r="B39" s="25" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C39" s="25" t="s">
         <v>36</v>
@@ -3041,7 +3044,7 @@
       <c r="F39" s="22"/>
       <c r="G39" s="22"/>
       <c r="H39" s="22" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="40" spans="1:8" ht="31.2" customHeight="1" x14ac:dyDescent="0.3">
@@ -3053,7 +3056,7 @@
       <c r="F40" s="22"/>
       <c r="G40" s="22"/>
       <c r="H40" s="22" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="41" spans="1:8" ht="31.2" customHeight="1" x14ac:dyDescent="0.3">
@@ -3065,7 +3068,7 @@
       <c r="F41" s="22"/>
       <c r="G41" s="22"/>
       <c r="H41" s="22" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="42" spans="1:8" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
@@ -3085,7 +3088,7 @@
     <row r="43" spans="1:8" ht="33.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A43" s="21"/>
       <c r="B43" s="24" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C43" s="24" t="s">
         <v>1</v>
@@ -3099,7 +3102,7 @@
       <c r="F43" s="22"/>
       <c r="G43" s="22"/>
       <c r="H43" s="22" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="44" spans="1:8" ht="33.6" customHeight="1" x14ac:dyDescent="0.3">
@@ -3119,7 +3122,7 @@
       <c r="F44" s="22"/>
       <c r="G44" s="22"/>
       <c r="H44" s="22" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="45" spans="1:8" ht="33.6" customHeight="1" x14ac:dyDescent="0.3">
@@ -3139,7 +3142,7 @@
       <c r="F45" s="22"/>
       <c r="G45" s="22"/>
       <c r="H45" s="22" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="46" spans="1:8" ht="33.6" customHeight="1" x14ac:dyDescent="0.3">
@@ -3157,7 +3160,7 @@
       <c r="F46" s="22"/>
       <c r="G46" s="22"/>
       <c r="H46" s="22" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="47" spans="1:8" ht="33.6" customHeight="1" x14ac:dyDescent="0.3">
@@ -3175,7 +3178,7 @@
       <c r="F47" s="22"/>
       <c r="G47" s="22"/>
       <c r="H47" s="22" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="48" spans="1:8" ht="33.6" customHeight="1" x14ac:dyDescent="0.3">
@@ -3193,7 +3196,7 @@
       <c r="F48" s="22"/>
       <c r="G48" s="22"/>
       <c r="H48" s="22" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="49" spans="1:8" ht="33.6" customHeight="1" x14ac:dyDescent="0.3">
@@ -3213,7 +3216,7 @@
       <c r="F49" s="22"/>
       <c r="G49" s="22"/>
       <c r="H49" s="22" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="50" spans="1:8" ht="47.4" customHeight="1" x14ac:dyDescent="0.3">
@@ -3225,7 +3228,7 @@
       <c r="F50" s="22"/>
       <c r="G50" s="22"/>
       <c r="H50" s="26" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="51" spans="1:8" ht="34.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
@@ -3237,7 +3240,7 @@
       <c r="F51" s="22"/>
       <c r="G51" s="22"/>
       <c r="H51" s="22" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="52" spans="1:8" ht="34.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
@@ -3249,7 +3252,7 @@
       <c r="F52" s="22"/>
       <c r="G52" s="22"/>
       <c r="H52" s="22" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="53" spans="1:8" ht="34.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
@@ -3275,13 +3278,13 @@
       <c r="F54" s="22"/>
       <c r="G54" s="22"/>
       <c r="H54" s="22" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="55" spans="1:8" ht="33.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A55" s="21"/>
       <c r="B55" s="24" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C55" s="24" t="s">
         <v>1</v>
@@ -3295,7 +3298,7 @@
       <c r="F55" s="22"/>
       <c r="G55" s="22"/>
       <c r="H55" s="22" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="56" spans="1:8" ht="33.6" customHeight="1" x14ac:dyDescent="0.3">
@@ -3315,7 +3318,7 @@
       <c r="F56" s="22"/>
       <c r="G56" s="22"/>
       <c r="H56" s="22" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="57" spans="1:8" ht="33.6" customHeight="1" x14ac:dyDescent="0.3">
@@ -3335,7 +3338,7 @@
       <c r="F57" s="22"/>
       <c r="G57" s="22"/>
       <c r="H57" s="22" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="58" spans="1:8" ht="33.6" customHeight="1" x14ac:dyDescent="0.3">
@@ -3355,7 +3358,7 @@
       <c r="F58" s="22"/>
       <c r="G58" s="22"/>
       <c r="H58" s="22" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="59" spans="1:8" ht="33.6" customHeight="1" x14ac:dyDescent="0.3">
@@ -3373,7 +3376,7 @@
       <c r="F59" s="22"/>
       <c r="G59" s="22"/>
       <c r="H59" s="22" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="60" spans="1:8" ht="33.6" customHeight="1" x14ac:dyDescent="0.3">
@@ -3391,7 +3394,7 @@
       <c r="F60" s="22"/>
       <c r="G60" s="22"/>
       <c r="H60" s="22" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="61" spans="1:8" ht="27.6" customHeight="1" x14ac:dyDescent="0.3">
@@ -3403,7 +3406,7 @@
       <c r="F61" s="22"/>
       <c r="G61" s="22"/>
       <c r="H61" s="22" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="62" spans="1:8" ht="25.8" customHeight="1" x14ac:dyDescent="0.3">
@@ -3415,7 +3418,7 @@
       <c r="F62" s="22"/>
       <c r="G62" s="22"/>
       <c r="H62" s="22" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="63" spans="1:8" ht="27.6" customHeight="1" x14ac:dyDescent="0.3">
@@ -3427,7 +3430,7 @@
       <c r="F63" s="22"/>
       <c r="G63" s="22"/>
       <c r="H63" s="22" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="64" spans="1:8" ht="25.8" customHeight="1" x14ac:dyDescent="0.3">
@@ -3447,7 +3450,7 @@
     <row r="65" spans="1:8" ht="31.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A65" s="21"/>
       <c r="B65" s="24" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C65" s="24" t="s">
         <v>1</v>
@@ -3461,7 +3464,7 @@
       <c r="F65" s="22"/>
       <c r="G65" s="22"/>
       <c r="H65" s="22" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="66" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
@@ -3481,7 +3484,7 @@
       <c r="F66" s="22"/>
       <c r="G66" s="22"/>
       <c r="H66" s="22" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="67" spans="1:8" ht="27.6" customHeight="1" x14ac:dyDescent="0.3">
@@ -3501,7 +3504,7 @@
       <c r="F67" s="22"/>
       <c r="G67" s="22"/>
       <c r="H67" s="22" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="68" spans="1:8" ht="32.4" customHeight="1" x14ac:dyDescent="0.3">
@@ -3519,7 +3522,7 @@
       <c r="F68" s="22"/>
       <c r="G68" s="22"/>
       <c r="H68" s="22" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="69" spans="1:8" ht="32.4" customHeight="1" x14ac:dyDescent="0.3">
@@ -3531,7 +3534,7 @@
       <c r="F69" s="22"/>
       <c r="G69" s="22"/>
       <c r="H69" s="22" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="70" spans="1:8" ht="33" customHeight="1" x14ac:dyDescent="0.3">
@@ -3543,7 +3546,7 @@
       <c r="F70" s="22"/>
       <c r="G70" s="22"/>
       <c r="H70" s="22" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="71" spans="1:8" ht="33" customHeight="1" x14ac:dyDescent="0.3">
@@ -3555,7 +3558,7 @@
       <c r="F71" s="22"/>
       <c r="G71" s="22"/>
       <c r="H71" s="22" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="72" spans="1:8" ht="33" customHeight="1" x14ac:dyDescent="0.3">
@@ -3581,13 +3584,13 @@
       <c r="F73" s="22"/>
       <c r="G73" s="22"/>
       <c r="H73" s="22" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="74" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A74" s="21"/>
       <c r="B74" s="24" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C74" s="24" t="s">
         <v>1</v>
@@ -3596,12 +3599,12 @@
         <v>2</v>
       </c>
       <c r="E74" s="24" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="F74" s="22"/>
       <c r="G74" s="22"/>
       <c r="H74" s="22" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="75" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
@@ -3621,7 +3624,7 @@
       <c r="F75" s="22"/>
       <c r="G75" s="22"/>
       <c r="H75" s="22" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="76" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
@@ -3639,7 +3642,7 @@
       <c r="F76" s="22"/>
       <c r="G76" s="22"/>
       <c r="H76" s="22" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="77" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
@@ -3657,7 +3660,7 @@
       <c r="F77" s="22"/>
       <c r="G77" s="22"/>
       <c r="H77" s="22" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="78" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
@@ -3675,7 +3678,7 @@
       <c r="F78" s="22"/>
       <c r="G78" s="22"/>
       <c r="H78" s="22" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="79" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
@@ -3693,7 +3696,7 @@
       <c r="F79" s="22"/>
       <c r="G79" s="22"/>
       <c r="H79" s="22" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="80" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
@@ -3711,7 +3714,7 @@
       <c r="F80" s="22"/>
       <c r="G80" s="22"/>
       <c r="H80" s="22" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="81" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
@@ -3729,7 +3732,7 @@
       <c r="F81" s="22"/>
       <c r="G81" s="22"/>
       <c r="H81" s="22" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="82" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
@@ -3747,7 +3750,7 @@
       <c r="F82" s="22"/>
       <c r="G82" s="22"/>
       <c r="H82" s="22" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="83" spans="1:8" ht="26.4" customHeight="1" x14ac:dyDescent="0.3">
@@ -3759,7 +3762,7 @@
       <c r="F83" s="22"/>
       <c r="G83" s="22"/>
       <c r="H83" s="22" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="84" spans="1:8" ht="26.4" customHeight="1" x14ac:dyDescent="0.3">
@@ -3785,13 +3788,13 @@
       <c r="F85" s="22"/>
       <c r="G85" s="22"/>
       <c r="H85" s="22" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="86" spans="1:8" ht="37.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A86" s="21"/>
       <c r="B86" s="24" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C86" s="24" t="s">
         <v>1</v>
@@ -3805,7 +3808,7 @@
       <c r="F86" s="22"/>
       <c r="G86" s="22"/>
       <c r="H86" s="22" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="87" spans="1:8" ht="47.4" customHeight="1" x14ac:dyDescent="0.3">
@@ -3825,7 +3828,7 @@
       <c r="F87" s="22"/>
       <c r="G87" s="22"/>
       <c r="H87" s="22" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="88" spans="1:8" ht="37.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
@@ -3843,7 +3846,7 @@
       <c r="F88" s="22"/>
       <c r="G88" s="22"/>
       <c r="H88" s="22" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="89" spans="1:8" ht="37.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
@@ -3863,7 +3866,7 @@
       <c r="F89" s="22"/>
       <c r="G89" s="22"/>
       <c r="H89" s="22" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="90" spans="1:8" ht="37.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
@@ -3881,7 +3884,7 @@
       <c r="F90" s="22"/>
       <c r="G90" s="22"/>
       <c r="H90" s="22" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="91" spans="1:8" ht="37.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
@@ -3899,7 +3902,7 @@
       <c r="F91" s="22"/>
       <c r="G91" s="22"/>
       <c r="H91" s="22" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="92" spans="1:8" ht="37.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
@@ -3919,7 +3922,7 @@
       <c r="F92" s="22"/>
       <c r="G92" s="22"/>
       <c r="H92" s="22" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="93" spans="1:8" ht="34.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
@@ -3931,7 +3934,7 @@
       <c r="F93" s="22"/>
       <c r="G93" s="22"/>
       <c r="H93" s="22" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="94" spans="1:8" ht="36" customHeight="1" x14ac:dyDescent="0.3">
@@ -3957,13 +3960,13 @@
       <c r="F95" s="22"/>
       <c r="G95" s="22"/>
       <c r="H95" s="22" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="96" spans="1:8" ht="30.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A96" s="21"/>
       <c r="B96" s="24" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C96" s="24" t="s">
         <v>1</v>
@@ -3977,13 +3980,13 @@
       <c r="F96" s="22"/>
       <c r="G96" s="22"/>
       <c r="H96" s="22" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="97" spans="1:8" ht="30.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A97" s="21"/>
       <c r="B97" s="25" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C97" s="25" t="s">
         <v>108</v>
@@ -3997,13 +4000,13 @@
       <c r="F97" s="22"/>
       <c r="G97" s="22"/>
       <c r="H97" s="22" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="98" spans="1:8" ht="30.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A98" s="21"/>
       <c r="B98" s="25" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C98" s="25" t="s">
         <v>109</v>
@@ -4017,7 +4020,7 @@
       <c r="F98" s="22"/>
       <c r="G98" s="22"/>
       <c r="H98" s="22" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="99" spans="1:8" ht="30.6" customHeight="1" x14ac:dyDescent="0.3">
@@ -4037,7 +4040,7 @@
       <c r="F99" s="22"/>
       <c r="G99" s="22"/>
       <c r="H99" s="22" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="100" spans="1:8" ht="30.6" customHeight="1" x14ac:dyDescent="0.3">
@@ -4055,7 +4058,7 @@
       <c r="F100" s="22"/>
       <c r="G100" s="22"/>
       <c r="H100" s="22" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="101" spans="1:8" ht="30.6" customHeight="1" x14ac:dyDescent="0.3">
@@ -4073,27 +4076,27 @@
       <c r="F101" s="22"/>
       <c r="G101" s="22"/>
       <c r="H101" s="22" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="102" spans="1:8" ht="36" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A102" s="21"/>
       <c r="B102" s="25" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C102" s="25" t="s">
         <v>113</v>
       </c>
       <c r="D102" s="25" t="s">
-        <v>29</v>
+        <v>216</v>
       </c>
       <c r="E102" s="25" t="s">
-        <v>114</v>
+        <v>215</v>
       </c>
       <c r="F102" s="22"/>
       <c r="G102" s="22"/>
       <c r="H102" s="22" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="103" spans="1:8" ht="30.6" customHeight="1" x14ac:dyDescent="0.3">
@@ -4105,13 +4108,13 @@
         <v>28</v>
       </c>
       <c r="D103" s="25" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E103" s="25"/>
       <c r="F103" s="22"/>
       <c r="G103" s="22"/>
       <c r="H103" s="22" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="104" spans="1:8" ht="30.6" customHeight="1" x14ac:dyDescent="0.3">
@@ -4129,47 +4132,47 @@
       <c r="F104" s="22"/>
       <c r="G104" s="22"/>
       <c r="H104" s="22" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="105" spans="1:8" ht="30.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A105" s="21"/>
       <c r="B105" s="25" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C105" s="25" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D105" s="25" t="s">
         <v>41</v>
       </c>
       <c r="E105" s="25" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="F105" s="22"/>
       <c r="G105" s="22"/>
       <c r="H105" s="22" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="106" spans="1:8" ht="30.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A106" s="21"/>
       <c r="B106" s="25" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C106" s="25" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D106" s="25" t="s">
         <v>41</v>
       </c>
       <c r="E106" s="25" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="F106" s="22"/>
       <c r="G106" s="22"/>
       <c r="H106" s="22" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="107" spans="1:8" ht="26.4" customHeight="1" x14ac:dyDescent="0.3">
@@ -4181,7 +4184,7 @@
       <c r="F107" s="22"/>
       <c r="G107" s="22"/>
       <c r="H107" s="22" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="108" spans="1:8" ht="26.4" customHeight="1" x14ac:dyDescent="0.3">
@@ -4193,7 +4196,7 @@
       <c r="F108" s="22"/>
       <c r="G108" s="22"/>
       <c r="H108" s="22" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="109" spans="1:8" ht="26.4" customHeight="1" x14ac:dyDescent="0.3">
@@ -4205,7 +4208,7 @@
       <c r="F109" s="22"/>
       <c r="G109" s="22"/>
       <c r="H109" s="22" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="110" spans="1:8" ht="16.8" x14ac:dyDescent="0.3">

--- a/K22vnt4-lethuonghoaithu-2210900126-db.xlsx
+++ b/K22vnt4-lethuonghoaithu-2210900126-db.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\thu\DATN-LTHT\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC129927-831A-4648-945B-354A281826EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0953F89F-0981-4E31-B9A4-DC3FCA3DAC32}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{254F8AC1-F80B-4B7A-8F15-67C97BEEF212}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="351" uniqueCount="217">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="470" uniqueCount="287">
   <si>
     <t>BẢNG</t>
   </si>
@@ -686,6 +686,216 @@
   </si>
   <si>
     <t>enum</t>
+  </si>
+  <si>
+    <t>title</t>
+  </si>
+  <si>
+    <t>img</t>
+  </si>
+  <si>
+    <t>desc1</t>
+  </si>
+  <si>
+    <t>desc2</t>
+  </si>
+  <si>
+    <t>category</t>
+  </si>
+  <si>
+    <t>content</t>
+  </si>
+  <si>
+    <t>Mã bài viết</t>
+  </si>
+  <si>
+    <t>NOT NULL, PRIMARY KEY</t>
+  </si>
+  <si>
+    <t>Tiêu đề bài viết</t>
+  </si>
+  <si>
+    <t>NOT NULL</t>
+  </si>
+  <si>
+    <t>Ảnh đại diện</t>
+  </si>
+  <si>
+    <t>Mô tả ngắn 1</t>
+  </si>
+  <si>
+    <t>DEFAULT NULL</t>
+  </si>
+  <si>
+    <t>Mô tả ngắn 2</t>
+  </si>
+  <si>
+    <t>Danh mục bài viết</t>
+  </si>
+  <si>
+    <t>enum('monan','rausach','suckhoe')</t>
+  </si>
+  <si>
+    <t>Nội dung đầy đủ</t>
+  </si>
+  <si>
+    <t>longtext</t>
+  </si>
+  <si>
+    <t>CREATE TABLE blog (</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  id INT(11) NOT NULL,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  title VARCHAR(255) NOT NULL,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  img VARCHAR(255) NOT NULL,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  desc1 VARCHAR(255),</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  desc2 VARCHAR(255),</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  category ENUM('monan','rausach','suckhoe') NOT NULL,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  content LONGTEXT,</t>
+  </si>
+  <si>
+    <t>blog</t>
+  </si>
+  <si>
+    <t>Mã thanh toán</t>
+  </si>
+  <si>
+    <t>ma_tt</t>
+  </si>
+  <si>
+    <t>VARCHAR(10)</t>
+  </si>
+  <si>
+    <t>NOT NULL, FOREIGN KEY</t>
+  </si>
+  <si>
+    <t>Phương thức thanh toán</t>
+  </si>
+  <si>
+    <t>phuongthuc</t>
+  </si>
+  <si>
+    <t>ENUM('COD','Chuyển khoản','Ví điện tử')</t>
+  </si>
+  <si>
+    <t>Số tiền thanh toán</t>
+  </si>
+  <si>
+    <t>sotien</t>
+  </si>
+  <si>
+    <t>DECIMAL(10,2)</t>
+  </si>
+  <si>
+    <t>Trạng thái thanh toán</t>
+  </si>
+  <si>
+    <t>VARCHAR(50)</t>
+  </si>
+  <si>
+    <t>DEFAULT 'Chưa thanh toán'</t>
+  </si>
+  <si>
+    <t>Thời gian thanh toán</t>
+  </si>
+  <si>
+    <t>thoigian</t>
+  </si>
+  <si>
+    <t>DATETIME</t>
+  </si>
+  <si>
+    <t>CREATE TABLE thanhtoan (</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  ma_tt VARCHAR(10) NOT NULL,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  phuongthuc ENUM('COD','Chuyển khoản','Ví điện tử') NOT NULL,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  sotien DECIMAL(10,2) NOT NULL,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  trangthai VARCHAR(50) DEFAULT 'Chưa thanh toán',</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  thoigian DATETIME DEFAULT NULL,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  PRIMARY KEY (ma_tt),</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  FOREIGN KEY (ma_donhang) REFERENCES donhang(ma_donhang)</t>
+  </si>
+  <si>
+    <t>Mã nhân viên</t>
+  </si>
+  <si>
+    <t>ma_nv</t>
+  </si>
+  <si>
+    <t>BIGINT(20)</t>
+  </si>
+  <si>
+    <t>Chức vụ</t>
+  </si>
+  <si>
+    <t>chucvu</t>
+  </si>
+  <si>
+    <t>Ngày vào làm</t>
+  </si>
+  <si>
+    <t>ngayvaolam</t>
+  </si>
+  <si>
+    <t>DATE</t>
+  </si>
+  <si>
+    <t>DEFAULT 'Đang làm việc'</t>
+  </si>
+  <si>
+    <t>nhanvien</t>
+  </si>
+  <si>
+    <t>thanhtoan</t>
+  </si>
+  <si>
+    <t>CREATE TABLE nhanvien (</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  ma_nv VARCHAR(10) NOT NULL,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  ma_nguoidung BIGINT(20) NOT NULL,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  chucvu VARCHAR(50) NOT NULL,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  ngayvaolam DATE DEFAULT NULL,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  trangthai VARCHAR(50) DEFAULT 'Đang làm việc',</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  PRIMARY KEY (ma_nv),</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  FOREIGN KEY (ma_nguoidung) REFERENCES nguoidung(ma_nguoidung)</t>
   </si>
 </sst>
 </file>
@@ -862,7 +1072,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -943,11 +1153,359 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="54">
+  <dxfs count="72">
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="13"/>
+        <color theme="1"/>
+        <name val="Times New Roman"/>
+        <family val="1"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="13"/>
+        <color theme="1"/>
+        <name val="Times New Roman"/>
+        <family val="1"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="13"/>
+        <color theme="1"/>
+        <name val="Times New Roman"/>
+        <family val="1"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="13"/>
+        <color theme="1"/>
+        <name val="Times New Roman"/>
+        <family val="1"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="13"/>
+        <color theme="1"/>
+        <name val="Times New Roman"/>
+        <family val="1"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="13"/>
+        <color theme="1"/>
+        <name val="Times New Roman"/>
+        <family val="1"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="13"/>
+        <color theme="1"/>
+        <name val="Times New Roman"/>
+        <family val="1"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="13"/>
+        <color theme="1"/>
+        <name val="Times New Roman"/>
+        <family val="1"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="13"/>
+        <color theme="1"/>
+        <name val="Times New Roman"/>
+        <family val="1"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="13"/>
+        <color theme="1"/>
+        <name val="Times New Roman"/>
+        <family val="1"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="13"/>
+        <color theme="1"/>
+        <name val="Times New Roman"/>
+        <family val="1"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="13"/>
+        <color theme="1"/>
+        <name val="Times New Roman"/>
+        <family val="1"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="13"/>
+        <color theme="1"/>
+        <name val="Times New Roman"/>
+        <family val="1"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="13"/>
+        <color theme="1"/>
+        <name val="Times New Roman"/>
+        <family val="1"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="13"/>
+        <color theme="1"/>
+        <name val="Times New Roman"/>
+        <family val="1"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="13"/>
+        <color theme="1"/>
+        <name val="Times New Roman"/>
+        <family val="1"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="13"/>
+        <color theme="1"/>
+        <name val="Times New Roman"/>
+        <family val="1"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="13"/>
+        <color theme="1"/>
+        <name val="Times New Roman"/>
+        <family val="1"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
     <dxf>
       <font>
         <b val="0"/>
@@ -1988,117 +2546,156 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{B9959EB8-87D3-4F7D-9FBB-1D502D978D24}" name="Table1" displayName="Table1" ref="B9:E17" totalsRowShown="0" headerRowDxfId="53" dataDxfId="52">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{B9959EB8-87D3-4F7D-9FBB-1D502D978D24}" name="Table1" displayName="Table1" ref="B9:E17" totalsRowShown="0" headerRowDxfId="71" dataDxfId="70">
   <autoFilter ref="B9:E17" xr:uid="{B9959EB8-87D3-4F7D-9FBB-1D502D978D24}"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{D9262D88-6766-4488-8392-EBD2A6036572}" name="Mô tả " dataDxfId="51"/>
-    <tableColumn id="2" xr3:uid="{B16CDE8C-457B-4BFC-B13E-170F8E02854E}" name="Cột" dataDxfId="50"/>
-    <tableColumn id="3" xr3:uid="{E57416CD-759C-4FC9-A798-58DF4F906C54}" name="Kiểu dữ liệu (MySQL)" dataDxfId="49"/>
-    <tableColumn id="4" xr3:uid="{C6D7749E-DBA4-4FB8-A485-C034DD1A02DC}" name="Ràng buộc" dataDxfId="48"/>
+    <tableColumn id="1" xr3:uid="{D9262D88-6766-4488-8392-EBD2A6036572}" name="Mô tả " dataDxfId="69"/>
+    <tableColumn id="2" xr3:uid="{B16CDE8C-457B-4BFC-B13E-170F8E02854E}" name="Cột" dataDxfId="68"/>
+    <tableColumn id="3" xr3:uid="{E57416CD-759C-4FC9-A798-58DF4F906C54}" name="Kiểu dữ liệu (MySQL)" dataDxfId="67"/>
+    <tableColumn id="4" xr3:uid="{C6D7749E-DBA4-4FB8-A485-C034DD1A02DC}" name="Ràng buộc" dataDxfId="66"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight15" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table10.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="12" xr:uid="{E99A37A9-E71C-4F11-A69D-BDAD9DCF4C1B}" name="Table12" displayName="Table12" ref="B110:E117" totalsRowShown="0" headerRowDxfId="12" dataDxfId="13">
+  <autoFilter ref="B110:E117" xr:uid="{E99A37A9-E71C-4F11-A69D-BDAD9DCF4C1B}"/>
+  <tableColumns count="4">
+    <tableColumn id="1" xr3:uid="{102457EC-139A-4115-BCCB-DA0354B73E0D}" name="Mô tả" dataDxfId="17"/>
+    <tableColumn id="2" xr3:uid="{CFE08256-28DC-496D-8FA4-E9944A43D729}" name="Cột" dataDxfId="16"/>
+    <tableColumn id="3" xr3:uid="{6C839852-3CDE-4824-B379-81E6459E4332}" name="Kiểu dữ liệu (MySQL)" dataDxfId="15"/>
+    <tableColumn id="4" xr3:uid="{B30A71DC-FCC7-4E94-926A-E3B0B7C9555B}" name="Ràng buộc" dataDxfId="14"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight15" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table11.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="13" xr:uid="{51DFD4A0-8925-4897-BA8E-4F994F27D75E}" name="Table13" displayName="Table13" ref="B123:E129" totalsRowShown="0" headerRowDxfId="6" dataDxfId="7">
+  <autoFilter ref="B123:E129" xr:uid="{51DFD4A0-8925-4897-BA8E-4F994F27D75E}"/>
+  <tableColumns count="4">
+    <tableColumn id="1" xr3:uid="{3292CD4D-33ED-4D80-A677-94751C5289A2}" name="Mô tả" dataDxfId="11"/>
+    <tableColumn id="2" xr3:uid="{116A995B-50B9-4C56-A7AA-25ECF0D7D62A}" name="Cột" dataDxfId="10"/>
+    <tableColumn id="3" xr3:uid="{8E587835-9713-4AC0-9658-8FDD1FA495A6}" name="Kiểu dữ liệu (MySQL)" dataDxfId="9"/>
+    <tableColumn id="4" xr3:uid="{940E909B-3810-4E03-9383-F946F1511E32}" name="Ràng buộc" dataDxfId="8"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight15" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table12.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="14" xr:uid="{DE63A8D1-7A9D-4E9B-98FC-F48ACCF0653B}" name="Table14" displayName="Table14" ref="B132:E137" totalsRowShown="0" headerRowDxfId="0" dataDxfId="1">
+  <autoFilter ref="B132:E137" xr:uid="{DE63A8D1-7A9D-4E9B-98FC-F48ACCF0653B}"/>
+  <tableColumns count="4">
+    <tableColumn id="1" xr3:uid="{2805EDDD-5B32-48A8-B049-EDD682547801}" name="Mô tả" dataDxfId="5"/>
+    <tableColumn id="2" xr3:uid="{6AE7901B-5997-43DB-856C-5B40F527CC93}" name="Cột" dataDxfId="4"/>
+    <tableColumn id="3" xr3:uid="{E2EEC7D3-C5F7-4C97-B47A-F7B83055E638}" name="Kiểu dữ liệu (MySQL)" dataDxfId="3"/>
+    <tableColumn id="4" xr3:uid="{3AC6B231-7550-43AB-92DC-8EC9A81BD5E9}" name="Ràng buộc" dataDxfId="2"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight15" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{69CEB18C-3780-426C-BEEF-3A554781F22E}" name="Table2" displayName="Table2" ref="B25:E29" totalsRowShown="0" headerRowDxfId="47" dataDxfId="46">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{69CEB18C-3780-426C-BEEF-3A554781F22E}" name="Table2" displayName="Table2" ref="B25:E29" totalsRowShown="0" headerRowDxfId="65" dataDxfId="64">
   <autoFilter ref="B25:E29" xr:uid="{69CEB18C-3780-426C-BEEF-3A554781F22E}"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{3A67E6B6-DCA4-4867-958F-E165C3AB9D45}" name="Mô tả" dataDxfId="45"/>
-    <tableColumn id="2" xr3:uid="{625A9362-B148-4A9D-AF5D-230DD7872B8D}" name="Cột" dataDxfId="44"/>
-    <tableColumn id="3" xr3:uid="{196F7B7E-05DA-41AA-9F58-2C988FDA56CE}" name="Kiểu dữ liệu (MySQL)" dataDxfId="43"/>
-    <tableColumn id="4" xr3:uid="{F19C067F-FC15-4FEB-A787-52A4892AA719}" name="Ràng buộc" dataDxfId="42"/>
+    <tableColumn id="1" xr3:uid="{3A67E6B6-DCA4-4867-958F-E165C3AB9D45}" name="Mô tả" dataDxfId="63"/>
+    <tableColumn id="2" xr3:uid="{625A9362-B148-4A9D-AF5D-230DD7872B8D}" name="Cột" dataDxfId="62"/>
+    <tableColumn id="3" xr3:uid="{196F7B7E-05DA-41AA-9F58-2C988FDA56CE}" name="Kiểu dữ liệu (MySQL)" dataDxfId="61"/>
+    <tableColumn id="4" xr3:uid="{F19C067F-FC15-4FEB-A787-52A4892AA719}" name="Ràng buộc" dataDxfId="60"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight15" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{A1D3D0C3-A8DB-4FA5-A203-DABDA976098F}" name="Table4" displayName="Table4" ref="B33:E39" totalsRowShown="0" headerRowDxfId="41" dataDxfId="40">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{A1D3D0C3-A8DB-4FA5-A203-DABDA976098F}" name="Table4" displayName="Table4" ref="B33:E39" totalsRowShown="0" headerRowDxfId="59" dataDxfId="58">
   <autoFilter ref="B33:E39" xr:uid="{A1D3D0C3-A8DB-4FA5-A203-DABDA976098F}"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{911C853F-406C-45DA-BB31-031E519E9D0B}" name="Mô tả " dataDxfId="39"/>
-    <tableColumn id="2" xr3:uid="{C70040BA-62CE-42F9-83F9-DEDCC0021256}" name="Cột" dataDxfId="38"/>
-    <tableColumn id="3" xr3:uid="{E9E04607-CD30-45B3-A180-B9D96CD77163}" name="Kiểu dữ liệu (MySQL)" dataDxfId="37"/>
-    <tableColumn id="4" xr3:uid="{D6F5B721-5762-46F9-8C84-1CA4A6FA7839}" name="Ràng buộc" dataDxfId="36"/>
+    <tableColumn id="1" xr3:uid="{911C853F-406C-45DA-BB31-031E519E9D0B}" name="Mô tả " dataDxfId="57"/>
+    <tableColumn id="2" xr3:uid="{C70040BA-62CE-42F9-83F9-DEDCC0021256}" name="Cột" dataDxfId="56"/>
+    <tableColumn id="3" xr3:uid="{E9E04607-CD30-45B3-A180-B9D96CD77163}" name="Kiểu dữ liệu (MySQL)" dataDxfId="55"/>
+    <tableColumn id="4" xr3:uid="{D6F5B721-5762-46F9-8C84-1CA4A6FA7839}" name="Ràng buộc" dataDxfId="54"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight15" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{4BF62BD4-60C5-4A71-A6C1-FEA9069D1663}" name="Table5" displayName="Table5" ref="B43:E49" totalsRowShown="0" headerRowDxfId="35" dataDxfId="34">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{4BF62BD4-60C5-4A71-A6C1-FEA9069D1663}" name="Table5" displayName="Table5" ref="B43:E49" totalsRowShown="0" headerRowDxfId="53" dataDxfId="52">
   <autoFilter ref="B43:E49" xr:uid="{4BF62BD4-60C5-4A71-A6C1-FEA9069D1663}"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{31E347F8-3CA3-45E0-BB40-689EAB1CCF8F}" name="Mô tả" dataDxfId="33"/>
-    <tableColumn id="2" xr3:uid="{658F9C88-A3D4-457E-9D34-8DF86698BA07}" name="Cột" dataDxfId="32"/>
-    <tableColumn id="3" xr3:uid="{7576D915-D13B-4DE2-94E8-09839779FD24}" name="Kiểu dữ liệu (MySQL)" dataDxfId="31"/>
-    <tableColumn id="4" xr3:uid="{B74E29A8-1E35-4C3B-BA36-19C94F883E7F}" name="Ràng buộc" dataDxfId="30"/>
+    <tableColumn id="1" xr3:uid="{31E347F8-3CA3-45E0-BB40-689EAB1CCF8F}" name="Mô tả" dataDxfId="51"/>
+    <tableColumn id="2" xr3:uid="{658F9C88-A3D4-457E-9D34-8DF86698BA07}" name="Cột" dataDxfId="50"/>
+    <tableColumn id="3" xr3:uid="{7576D915-D13B-4DE2-94E8-09839779FD24}" name="Kiểu dữ liệu (MySQL)" dataDxfId="49"/>
+    <tableColumn id="4" xr3:uid="{B74E29A8-1E35-4C3B-BA36-19C94F883E7F}" name="Ràng buộc" dataDxfId="48"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight15" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{8F11A3CC-A82F-477A-9A64-6BEAB81FCC3E}" name="Table6" displayName="Table6" ref="B55:E60" totalsRowShown="0" headerRowDxfId="29" dataDxfId="28">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{8F11A3CC-A82F-477A-9A64-6BEAB81FCC3E}" name="Table6" displayName="Table6" ref="B55:E60" totalsRowShown="0" headerRowDxfId="47" dataDxfId="46">
   <autoFilter ref="B55:E60" xr:uid="{8F11A3CC-A82F-477A-9A64-6BEAB81FCC3E}"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{21A29277-2176-4205-8468-93088F7EACB4}" name="Mô tả" dataDxfId="27"/>
-    <tableColumn id="2" xr3:uid="{FE671FD9-2762-4BAB-A197-AE168950E2FC}" name="Cột" dataDxfId="26"/>
-    <tableColumn id="3" xr3:uid="{F522398B-94DE-4AEB-ADEA-ADE7ED9D43E6}" name="Kiểu dữ liệu (MySQL)" dataDxfId="25"/>
-    <tableColumn id="4" xr3:uid="{2F5F7DCB-E47A-4399-8AEF-802E097731E8}" name="Ràng buộc" dataDxfId="24"/>
+    <tableColumn id="1" xr3:uid="{21A29277-2176-4205-8468-93088F7EACB4}" name="Mô tả" dataDxfId="45"/>
+    <tableColumn id="2" xr3:uid="{FE671FD9-2762-4BAB-A197-AE168950E2FC}" name="Cột" dataDxfId="44"/>
+    <tableColumn id="3" xr3:uid="{F522398B-94DE-4AEB-ADEA-ADE7ED9D43E6}" name="Kiểu dữ liệu (MySQL)" dataDxfId="43"/>
+    <tableColumn id="4" xr3:uid="{2F5F7DCB-E47A-4399-8AEF-802E097731E8}" name="Ràng buộc" dataDxfId="42"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight15" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{E7404C3D-C4FF-472C-A83C-446B9CAF6D8A}" name="Table7" displayName="Table7" ref="B65:E68" totalsRowShown="0" headerRowDxfId="23" dataDxfId="22">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{E7404C3D-C4FF-472C-A83C-446B9CAF6D8A}" name="Table7" displayName="Table7" ref="B65:E68" totalsRowShown="0" headerRowDxfId="41" dataDxfId="40">
   <autoFilter ref="B65:E68" xr:uid="{E7404C3D-C4FF-472C-A83C-446B9CAF6D8A}"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{4B83A0A3-B8E2-4D3D-B75F-DFE745BE142F}" name="Mô tả" dataDxfId="21"/>
-    <tableColumn id="2" xr3:uid="{12EC0232-7E80-4400-A3E4-B7AE9AEE43A4}" name="Cột" dataDxfId="20"/>
-    <tableColumn id="3" xr3:uid="{3B57391E-C7A3-4ECD-82C0-D6B4F29D45BB}" name="Kiểu dữ liệu (MySQL)" dataDxfId="19"/>
-    <tableColumn id="4" xr3:uid="{C4A83D97-71D2-4284-91B0-2F4DA3ACCE37}" name="Ràng buộc" dataDxfId="18"/>
+    <tableColumn id="1" xr3:uid="{4B83A0A3-B8E2-4D3D-B75F-DFE745BE142F}" name="Mô tả" dataDxfId="39"/>
+    <tableColumn id="2" xr3:uid="{12EC0232-7E80-4400-A3E4-B7AE9AEE43A4}" name="Cột" dataDxfId="38"/>
+    <tableColumn id="3" xr3:uid="{3B57391E-C7A3-4ECD-82C0-D6B4F29D45BB}" name="Kiểu dữ liệu (MySQL)" dataDxfId="37"/>
+    <tableColumn id="4" xr3:uid="{C4A83D97-71D2-4284-91B0-2F4DA3ACCE37}" name="Ràng buộc" dataDxfId="36"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight15" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{B90E2A6E-387B-498A-A890-1554BB27F64A}" name="Table8" displayName="Table8" ref="B74:E82" totalsRowShown="0" headerRowDxfId="17" dataDxfId="16">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{B90E2A6E-387B-498A-A890-1554BB27F64A}" name="Table8" displayName="Table8" ref="B74:E82" totalsRowShown="0" headerRowDxfId="35" dataDxfId="34">
   <autoFilter ref="B74:E82" xr:uid="{B90E2A6E-387B-498A-A890-1554BB27F64A}"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{02EA5047-D444-4C1A-BB1C-EC2C85EDFF26}" name="Mô tả " dataDxfId="15"/>
-    <tableColumn id="2" xr3:uid="{EE730B66-550F-45C8-BF81-0472751C0E15}" name="Cột" dataDxfId="14"/>
-    <tableColumn id="3" xr3:uid="{DE4EE514-FAB5-49CD-9E64-CF26D63CC2E0}" name="Kiểu dữ liệu (MySQL)" dataDxfId="13"/>
-    <tableColumn id="4" xr3:uid="{6E71480D-31E4-4821-8AC2-67125C8FD667}" name="Ràng buộc " dataDxfId="12"/>
+    <tableColumn id="1" xr3:uid="{02EA5047-D444-4C1A-BB1C-EC2C85EDFF26}" name="Mô tả " dataDxfId="33"/>
+    <tableColumn id="2" xr3:uid="{EE730B66-550F-45C8-BF81-0472751C0E15}" name="Cột" dataDxfId="32"/>
+    <tableColumn id="3" xr3:uid="{DE4EE514-FAB5-49CD-9E64-CF26D63CC2E0}" name="Kiểu dữ liệu (MySQL)" dataDxfId="31"/>
+    <tableColumn id="4" xr3:uid="{6E71480D-31E4-4821-8AC2-67125C8FD667}" name="Ràng buộc " dataDxfId="30"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight15" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table8.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="9" xr:uid="{30519DEC-7B1C-41AF-8D2E-A1C629D343BD}" name="Table9" displayName="Table9" ref="B86:E92" totalsRowShown="0" headerRowDxfId="11" dataDxfId="10">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="9" xr:uid="{30519DEC-7B1C-41AF-8D2E-A1C629D343BD}" name="Table9" displayName="Table9" ref="B86:E92" totalsRowShown="0" headerRowDxfId="29" dataDxfId="28">
   <autoFilter ref="B86:E92" xr:uid="{30519DEC-7B1C-41AF-8D2E-A1C629D343BD}"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{655C9612-ED06-4F05-8FCE-E5C0CA886FCF}" name="Mô tả" dataDxfId="9"/>
-    <tableColumn id="2" xr3:uid="{7D6569C5-E6B9-401D-8520-16A88980F324}" name="Cột" dataDxfId="8"/>
-    <tableColumn id="3" xr3:uid="{8D139D6E-18B0-4B69-A9CB-45E2E641B45C}" name="Kiểu dữ liệu (MySQL)" dataDxfId="7"/>
-    <tableColumn id="4" xr3:uid="{7CF0369B-52FF-49CE-B000-D606FACA9FEF}" name="Ràng buộc" dataDxfId="6"/>
+    <tableColumn id="1" xr3:uid="{655C9612-ED06-4F05-8FCE-E5C0CA886FCF}" name="Mô tả" dataDxfId="27"/>
+    <tableColumn id="2" xr3:uid="{7D6569C5-E6B9-401D-8520-16A88980F324}" name="Cột" dataDxfId="26"/>
+    <tableColumn id="3" xr3:uid="{8D139D6E-18B0-4B69-A9CB-45E2E641B45C}" name="Kiểu dữ liệu (MySQL)" dataDxfId="25"/>
+    <tableColumn id="4" xr3:uid="{7CF0369B-52FF-49CE-B000-D606FACA9FEF}" name="Ràng buộc" dataDxfId="24"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight15" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table9.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="10" xr:uid="{D8D5AAFE-45C2-42AB-9FB7-853460760EF2}" name="Table10" displayName="Table10" ref="B96:E106" totalsRowShown="0" headerRowDxfId="5" dataDxfId="4">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="10" xr:uid="{D8D5AAFE-45C2-42AB-9FB7-853460760EF2}" name="Table10" displayName="Table10" ref="B96:E106" totalsRowShown="0" headerRowDxfId="23" dataDxfId="22">
   <autoFilter ref="B96:E106" xr:uid="{D8D5AAFE-45C2-42AB-9FB7-853460760EF2}"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{B9F8CE34-0DB8-4EDC-8919-27A3C6D13970}" name="Mô tả" dataDxfId="3"/>
-    <tableColumn id="2" xr3:uid="{B631C9F8-A45A-4A43-A283-1F7AF93398A1}" name="Cột" dataDxfId="2"/>
-    <tableColumn id="3" xr3:uid="{85901D8E-98D3-4689-B2E8-519D35C089EF}" name="Kiểu dữ liệu (MySQL)" dataDxfId="1"/>
-    <tableColumn id="4" xr3:uid="{C70BA152-CAF9-41F3-AFF4-433074DBD0A5}" name="Ràng buộc" dataDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{B9F8CE34-0DB8-4EDC-8919-27A3C6D13970}" name="Mô tả" dataDxfId="21"/>
+    <tableColumn id="2" xr3:uid="{B631C9F8-A45A-4A43-A283-1F7AF93398A1}" name="Cột" dataDxfId="20"/>
+    <tableColumn id="3" xr3:uid="{85901D8E-98D3-4689-B2E8-519D35C089EF}" name="Kiểu dữ liệu (MySQL)" dataDxfId="19"/>
+    <tableColumn id="4" xr3:uid="{C70BA152-CAF9-41F3-AFF4-433074DBD0A5}" name="Ràng buộc" dataDxfId="18"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight15" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2401,10 +2998,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{93708A95-F883-4E54-B98B-D8A93EC591EC}">
-  <dimension ref="A1:H112"/>
+  <dimension ref="A1:H140"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A103" zoomScale="81" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="E108" sqref="E108"/>
+    <sheetView tabSelected="1" topLeftCell="A84" zoomScale="81" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="H136" sqref="H136"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4200,8 +4797,12 @@
       </c>
     </row>
     <row r="109" spans="1:8" ht="26.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A109" s="21"/>
-      <c r="B109" s="22"/>
+      <c r="A109" s="21" t="s">
+        <v>71</v>
+      </c>
+      <c r="B109" s="22" t="s">
+        <v>243</v>
+      </c>
       <c r="C109" s="22"/>
       <c r="D109" s="22"/>
       <c r="E109" s="22"/>
@@ -4211,40 +4812,539 @@
         <v>138</v>
       </c>
     </row>
-    <row r="110" spans="1:8" ht="16.8" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:8" ht="36" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A110" s="21"/>
-      <c r="B110" s="22"/>
-      <c r="C110" s="22"/>
-      <c r="D110" s="22"/>
-      <c r="E110" s="22"/>
+      <c r="B110" s="24" t="s">
+        <v>202</v>
+      </c>
+      <c r="C110" s="24" t="s">
+        <v>1</v>
+      </c>
+      <c r="D110" s="24" t="s">
+        <v>2</v>
+      </c>
+      <c r="E110" s="24" t="s">
+        <v>47</v>
+      </c>
       <c r="F110" s="22"/>
       <c r="G110" s="22"/>
       <c r="H110" s="22"/>
     </row>
-    <row r="111" spans="1:8" ht="16.8" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:8" ht="36" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A111" s="21"/>
-      <c r="B111" s="22"/>
-      <c r="C111" s="22"/>
-      <c r="D111" s="22"/>
-      <c r="E111" s="22"/>
+      <c r="B111" s="25" t="s">
+        <v>223</v>
+      </c>
+      <c r="C111" s="25" t="s">
+        <v>86</v>
+      </c>
+      <c r="D111" s="25" t="s">
+        <v>18</v>
+      </c>
+      <c r="E111" s="25" t="s">
+        <v>224</v>
+      </c>
       <c r="F111" s="22"/>
       <c r="G111" s="22"/>
-      <c r="H111" s="22"/>
-    </row>
-    <row r="112" spans="1:8" ht="16.8" x14ac:dyDescent="0.3">
+      <c r="H111" s="22" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="112" spans="1:8" ht="36" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A112" s="21"/>
-      <c r="B112" s="22"/>
-      <c r="C112" s="22"/>
-      <c r="D112" s="22"/>
-      <c r="E112" s="22"/>
+      <c r="B112" s="25" t="s">
+        <v>225</v>
+      </c>
+      <c r="C112" s="25" t="s">
+        <v>217</v>
+      </c>
+      <c r="D112" s="25" t="s">
+        <v>8</v>
+      </c>
+      <c r="E112" s="25" t="s">
+        <v>226</v>
+      </c>
       <c r="F112" s="22"/>
       <c r="G112" s="22"/>
-      <c r="H112" s="22"/>
+      <c r="H112" s="22" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="113" spans="1:8" ht="36" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B113" s="25" t="s">
+        <v>227</v>
+      </c>
+      <c r="C113" s="25" t="s">
+        <v>218</v>
+      </c>
+      <c r="D113" s="25" t="s">
+        <v>8</v>
+      </c>
+      <c r="E113" s="25" t="s">
+        <v>226</v>
+      </c>
+      <c r="F113" s="22"/>
+      <c r="G113" s="22"/>
+      <c r="H113" s="22" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="114" spans="1:8" ht="36" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B114" s="25" t="s">
+        <v>228</v>
+      </c>
+      <c r="C114" s="25" t="s">
+        <v>219</v>
+      </c>
+      <c r="D114" s="25" t="s">
+        <v>8</v>
+      </c>
+      <c r="E114" s="25" t="s">
+        <v>229</v>
+      </c>
+      <c r="F114" s="22"/>
+      <c r="G114" s="22"/>
+      <c r="H114" s="22" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="115" spans="1:8" ht="36" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B115" s="25" t="s">
+        <v>230</v>
+      </c>
+      <c r="C115" s="25" t="s">
+        <v>220</v>
+      </c>
+      <c r="D115" s="25" t="s">
+        <v>8</v>
+      </c>
+      <c r="E115" s="25" t="s">
+        <v>229</v>
+      </c>
+      <c r="F115" s="22"/>
+      <c r="G115" s="22"/>
+      <c r="H115" s="22" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="116" spans="1:8" ht="36" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B116" s="25" t="s">
+        <v>231</v>
+      </c>
+      <c r="C116" s="25" t="s">
+        <v>221</v>
+      </c>
+      <c r="D116" s="25" t="s">
+        <v>232</v>
+      </c>
+      <c r="E116" s="25" t="s">
+        <v>226</v>
+      </c>
+      <c r="F116" s="22"/>
+      <c r="G116" s="22"/>
+      <c r="H116" s="22" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="117" spans="1:8" ht="36.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B117" s="25" t="s">
+        <v>233</v>
+      </c>
+      <c r="C117" s="25" t="s">
+        <v>222</v>
+      </c>
+      <c r="D117" s="25" t="s">
+        <v>234</v>
+      </c>
+      <c r="E117" s="25" t="s">
+        <v>229</v>
+      </c>
+      <c r="F117" s="22"/>
+      <c r="G117" s="22"/>
+      <c r="H117" s="22" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="118" spans="1:8" ht="36.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B118" s="22"/>
+      <c r="C118" s="22"/>
+      <c r="D118" s="22"/>
+      <c r="E118" s="22"/>
+      <c r="F118" s="22"/>
+      <c r="G118" s="22"/>
+      <c r="H118" s="22" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="119" spans="1:8" ht="34.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B119" s="22"/>
+      <c r="C119" s="22"/>
+      <c r="D119" s="22"/>
+      <c r="E119" s="22"/>
+      <c r="F119" s="22"/>
+      <c r="G119" s="22"/>
+      <c r="H119" s="22" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="120" spans="1:8" ht="30.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B120" s="22"/>
+      <c r="C120" s="22"/>
+      <c r="D120" s="22"/>
+      <c r="E120" s="22"/>
+      <c r="F120" s="22"/>
+      <c r="G120" s="22"/>
+      <c r="H120" s="22" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="121" spans="1:8" ht="33.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B121" s="30"/>
+    </row>
+    <row r="122" spans="1:8" ht="33.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A122" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="B122" s="31" t="s">
+        <v>278</v>
+      </c>
+      <c r="C122" s="22"/>
+      <c r="D122" s="22"/>
+      <c r="E122" s="22"/>
+      <c r="F122" s="22"/>
+      <c r="G122" s="22"/>
+      <c r="H122" s="22" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="123" spans="1:8" ht="33.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A123" s="21"/>
+      <c r="B123" s="24" t="s">
+        <v>202</v>
+      </c>
+      <c r="C123" s="24" t="s">
+        <v>1</v>
+      </c>
+      <c r="D123" s="24" t="s">
+        <v>2</v>
+      </c>
+      <c r="E123" s="24" t="s">
+        <v>47</v>
+      </c>
+      <c r="F123" s="22"/>
+      <c r="G123" s="22"/>
+      <c r="H123" s="22" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="124" spans="1:8" ht="33.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A124" s="21"/>
+      <c r="B124" s="25" t="s">
+        <v>244</v>
+      </c>
+      <c r="C124" s="25" t="s">
+        <v>245</v>
+      </c>
+      <c r="D124" s="25" t="s">
+        <v>246</v>
+      </c>
+      <c r="E124" s="25" t="s">
+        <v>224</v>
+      </c>
+      <c r="F124" s="22"/>
+      <c r="G124" s="22"/>
+      <c r="H124" s="22" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="125" spans="1:8" ht="33.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A125" s="21"/>
+      <c r="B125" s="25" t="s">
+        <v>65</v>
+      </c>
+      <c r="C125" s="25" t="s">
+        <v>39</v>
+      </c>
+      <c r="D125" s="25" t="s">
+        <v>246</v>
+      </c>
+      <c r="E125" s="25" t="s">
+        <v>247</v>
+      </c>
+      <c r="F125" s="22"/>
+      <c r="G125" s="22"/>
+      <c r="H125" s="22" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="126" spans="1:8" ht="39.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A126" s="21"/>
+      <c r="B126" s="25" t="s">
+        <v>248</v>
+      </c>
+      <c r="C126" s="25" t="s">
+        <v>249</v>
+      </c>
+      <c r="D126" s="25" t="s">
+        <v>250</v>
+      </c>
+      <c r="E126" s="25" t="s">
+        <v>226</v>
+      </c>
+      <c r="F126" s="22"/>
+      <c r="G126" s="22"/>
+      <c r="H126" s="22" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="127" spans="1:8" ht="33.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A127" s="21"/>
+      <c r="B127" s="25" t="s">
+        <v>251</v>
+      </c>
+      <c r="C127" s="25" t="s">
+        <v>252</v>
+      </c>
+      <c r="D127" s="25" t="s">
+        <v>253</v>
+      </c>
+      <c r="E127" s="25" t="s">
+        <v>226</v>
+      </c>
+      <c r="F127" s="22"/>
+      <c r="G127" s="22"/>
+      <c r="H127" s="22" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="128" spans="1:8" ht="39" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A128" s="21"/>
+      <c r="B128" s="25" t="s">
+        <v>254</v>
+      </c>
+      <c r="C128" s="25" t="s">
+        <v>43</v>
+      </c>
+      <c r="D128" s="25" t="s">
+        <v>255</v>
+      </c>
+      <c r="E128" s="25" t="s">
+        <v>256</v>
+      </c>
+      <c r="F128" s="22"/>
+      <c r="G128" s="22"/>
+      <c r="H128" s="22" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="129" spans="1:8" ht="39" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A129" s="21"/>
+      <c r="B129" s="25" t="s">
+        <v>257</v>
+      </c>
+      <c r="C129" s="25" t="s">
+        <v>258</v>
+      </c>
+      <c r="D129" s="25" t="s">
+        <v>259</v>
+      </c>
+      <c r="E129" s="25" t="s">
+        <v>229</v>
+      </c>
+      <c r="F129" s="22"/>
+      <c r="G129" s="22"/>
+      <c r="H129" s="22" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="130" spans="1:8" ht="39" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A130" s="21"/>
+      <c r="B130" s="22"/>
+      <c r="C130" s="22"/>
+      <c r="D130" s="22"/>
+      <c r="E130" s="22"/>
+      <c r="F130" s="22"/>
+      <c r="G130" s="22"/>
+      <c r="H130" s="22" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="131" spans="1:8" ht="39" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A131" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="B131" s="25" t="s">
+        <v>277</v>
+      </c>
+      <c r="C131" s="22"/>
+      <c r="D131" s="22"/>
+      <c r="E131" s="22"/>
+      <c r="F131" s="22"/>
+      <c r="G131" s="22"/>
+      <c r="H131" s="22" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="132" spans="1:8" ht="39" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A132" s="21"/>
+      <c r="B132" s="24" t="s">
+        <v>202</v>
+      </c>
+      <c r="C132" s="24" t="s">
+        <v>1</v>
+      </c>
+      <c r="D132" s="24" t="s">
+        <v>2</v>
+      </c>
+      <c r="E132" s="24" t="s">
+        <v>47</v>
+      </c>
+      <c r="F132" s="22"/>
+      <c r="G132" s="22"/>
+      <c r="H132" s="22" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="133" spans="1:8" ht="39" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A133" s="21"/>
+      <c r="B133" s="25" t="s">
+        <v>268</v>
+      </c>
+      <c r="C133" s="25" t="s">
+        <v>269</v>
+      </c>
+      <c r="D133" s="25" t="s">
+        <v>246</v>
+      </c>
+      <c r="E133" s="25" t="s">
+        <v>224</v>
+      </c>
+      <c r="F133" s="22"/>
+      <c r="G133" s="22"/>
+      <c r="H133" s="22" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="134" spans="1:8" ht="39" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A134" s="21"/>
+      <c r="B134" s="25" t="s">
+        <v>121</v>
+      </c>
+      <c r="C134" s="25" t="s">
+        <v>108</v>
+      </c>
+      <c r="D134" s="25" t="s">
+        <v>270</v>
+      </c>
+      <c r="E134" s="25" t="s">
+        <v>247</v>
+      </c>
+      <c r="F134" s="22"/>
+      <c r="G134" s="22"/>
+      <c r="H134" s="22" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="135" spans="1:8" ht="39" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A135" s="21"/>
+      <c r="B135" s="25" t="s">
+        <v>271</v>
+      </c>
+      <c r="C135" s="25" t="s">
+        <v>272</v>
+      </c>
+      <c r="D135" s="25" t="s">
+        <v>255</v>
+      </c>
+      <c r="E135" s="25" t="s">
+        <v>226</v>
+      </c>
+      <c r="F135" s="22"/>
+      <c r="G135" s="22"/>
+      <c r="H135" s="22" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="136" spans="1:8" ht="39" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A136" s="21"/>
+      <c r="B136" s="25" t="s">
+        <v>273</v>
+      </c>
+      <c r="C136" s="25" t="s">
+        <v>274</v>
+      </c>
+      <c r="D136" s="25" t="s">
+        <v>275</v>
+      </c>
+      <c r="E136" s="25" t="s">
+        <v>229</v>
+      </c>
+      <c r="F136" s="22"/>
+      <c r="G136" s="22"/>
+      <c r="H136" s="22" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="137" spans="1:8" ht="39" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A137" s="21"/>
+      <c r="B137" s="25" t="s">
+        <v>45</v>
+      </c>
+      <c r="C137" s="25" t="s">
+        <v>43</v>
+      </c>
+      <c r="D137" s="25" t="s">
+        <v>255</v>
+      </c>
+      <c r="E137" s="25" t="s">
+        <v>276</v>
+      </c>
+      <c r="F137" s="22"/>
+      <c r="G137" s="22"/>
+      <c r="H137" s="22" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="138" spans="1:8" ht="39" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A138" s="21"/>
+      <c r="B138" s="22"/>
+      <c r="C138" s="22"/>
+      <c r="D138" s="22"/>
+      <c r="E138" s="22"/>
+      <c r="F138" s="22"/>
+      <c r="G138" s="22"/>
+      <c r="H138" s="22" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="139" spans="1:8" ht="39" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A139" s="21"/>
+      <c r="B139" s="22"/>
+      <c r="C139" s="22"/>
+      <c r="D139" s="22"/>
+      <c r="E139" s="22"/>
+      <c r="F139" s="22"/>
+      <c r="G139" s="22"/>
+      <c r="H139" s="22" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="140" spans="1:8" ht="39" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A140" s="21"/>
+      <c r="B140" s="22"/>
+      <c r="C140" s="22"/>
+      <c r="D140" s="22"/>
+      <c r="E140" s="22"/>
+      <c r="F140" s="22"/>
+      <c r="G140" s="22"/>
+      <c r="H140" s="22" t="s">
+        <v>138</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
-  <tableParts count="9">
+  <tableParts count="12">
     <tablePart r:id="rId2"/>
     <tablePart r:id="rId3"/>
     <tablePart r:id="rId4"/>
@@ -4254,6 +5354,9 @@
     <tablePart r:id="rId8"/>
     <tablePart r:id="rId9"/>
     <tablePart r:id="rId10"/>
+    <tablePart r:id="rId11"/>
+    <tablePart r:id="rId12"/>
+    <tablePart r:id="rId13"/>
   </tableParts>
 </worksheet>
 </file>
